--- a/Lab7/Data/Part1Resonance.xlsx
+++ b/Lab7/Data/Part1Resonance.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27610"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Murtadha\Desktop\Lab 5 Electrical Resonance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/viraj/Google_Drive/Queens/second_year/semester_two/ENPHYS253/Lab7/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4090"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="17240" windowHeight="11300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,21 +30,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Resonant Frequency [KHz]</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Capacitance [microFarads]</t>
   </si>
   <si>
     <t>External Voltage [V]</t>
   </si>
+  <si>
+    <t>Error in Voltage [V]</t>
+  </si>
+  <si>
+    <t>Resonant Frequency [KHz] +/- 0.1 [kHZ]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -68,8 +77,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,29 +394,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.90625" customWidth="1"/>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>7.66</v>
       </c>
@@ -416,8 +430,12 @@
       <c r="C2">
         <v>1.41</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2" s="1">
+        <f>C2*5/100</f>
+        <v>7.0499999999999993E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>16.100000000000001</v>
       </c>
@@ -427,8 +445,12 @@
       <c r="C3">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D12" si="0">C3*5/100</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>12.11</v>
       </c>
@@ -438,8 +460,12 @@
       <c r="C4">
         <v>1.31</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>6.5500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>9.92</v>
       </c>
@@ -449,8 +475,12 @@
       <c r="C5">
         <v>1.35</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>6.7500000000000004E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>8.61</v>
       </c>
@@ -460,8 +490,12 @@
       <c r="C6">
         <v>1.41</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>7.0499999999999993E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7.62</v>
       </c>
@@ -471,8 +505,12 @@
       <c r="C7">
         <v>1.42</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6.98</v>
       </c>
@@ -482,8 +520,12 @@
       <c r="C8">
         <v>1.42</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6.54</v>
       </c>
@@ -493,8 +535,12 @@
       <c r="C9">
         <v>1.45</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>7.2499999999999995E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6.09</v>
       </c>
@@ -504,8 +550,12 @@
       <c r="C10">
         <v>1.46</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5.76</v>
       </c>
@@ -515,8 +565,12 @@
       <c r="C11">
         <v>1.46</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>5.48</v>
       </c>
@@ -525,6 +579,10 @@
       </c>
       <c r="C12">
         <v>1.47</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>7.3499999999999996E-2</v>
       </c>
     </row>
   </sheetData>
